--- a/biology/Botanique/Symphytum_tuberosum/Symphytum_tuberosum.xlsx
+++ b/biology/Botanique/Symphytum_tuberosum/Symphytum_tuberosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Symphytum tuberosum, nommée Consoude à tubercules ou Consoude tubéreuse en français[3],[4],[5], est une espèce de plantes de la famille des Boraginaceae. On la rencontre un peu partout en Europe et jusqu'en Turquie. C'est également une plante cultivée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Symphytum tuberosum, nommée Consoude à tubercules ou Consoude tubéreuse en français est une espèce de plantes de la famille des Boraginaceae. On la rencontre un peu partout en Europe et jusqu'en Turquie. C'est également une plante cultivée.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Planche botanique
@@ -548,9 +562,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire de Turquie pour l'Asie et en Europe dans de nombreux pays[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire de Turquie pour l'Asie et en Europe dans de nombreux pays.
 </t>
         </is>
       </c>
@@ -579,15 +595,52 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1753 par le naturaliste suédois Carl von Linné (1707-1778)[7]. L'épithète spécifique tuberosum signifie « tubéreux, qui produit des racines souterraines renflées »[8].
-Dans la classification phylogénétique APG III (2009)[9], de même que dans la classification classique de Cronquist (1981)[10], elle est classée dans la famille des Boraginaceae.
-Liste des sous-espèces
-Selon BioLib                    (20 avril 2017)[2], Catalogue of Life                                   (20 avril 2017)[11] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1753 par le naturaliste suédois Carl von Linné (1707-1778). L'épithète spécifique tuberosum signifie « tubéreux, qui produit des racines souterraines renflées ».
+Dans la classification phylogénétique APG III (2009), de même que dans la classification classique de Cronquist (1981), elle est classée dans la famille des Boraginaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Symphytum_tuberosum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symphytum_tuberosum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (20 avril 2017), Catalogue of Life                                   (20 avril 2017) :
 sous-espèce Symphytum tuberosum subsp. angustifolium (A. Kern.) Nyman
 sous-espèce Symphytum tuberosum subsp. tuberosum
-Selon The Plant List            (20 avril 2017)[1] :
+Selon The Plant List            (20 avril 2017) :
 sous-espèce Symphytum tuberosum subsp. nodosum (Schur) Soó</t>
         </is>
       </c>
